--- a/systems2atoms/systems/inputs/input_params_baseline.xlsx
+++ b/systems2atoms/systems/inputs/input_params_baseline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doellnl-my.sharepoint.com/personal/yuan13_llnl_gov/Documents/Documents/_work/projects/System to Atoms (S2A)/GitHub/systems2atoms/systems2atoms/systems/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{401E820F-D25F-3D46-84BE-224BE0C8BBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{401E820F-D25F-3D46-84BE-224BE0C8BBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A63418F1-8263-41C5-8F45-0553FE2407F8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{6CEB0D03-8142-4461-B5D8-E2E1F9D69928}">
+    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{6CEB0D03-8142-4461-B5D8-E2E1F9D69928}">
       <text>
         <r>
           <rPr>
@@ -430,7 +430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{A7F3BD7A-BC91-4F82-8B30-22EC15A227B3}">
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{A7F3BD7A-BC91-4F82-8B30-22EC15A227B3}">
       <text>
         <r>
           <rPr>
@@ -685,7 +685,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>run #</t>
   </si>
@@ -850,6 +850,12 @@
   </si>
   <si>
     <t>hydr. electrolyzer cell area (m^2/cell)</t>
+  </si>
+  <si>
+    <t>terminal compressed hydrogen storage amount (days)</t>
+  </si>
+  <si>
+    <t>terminal liquid hydrogen storage amount (days)</t>
   </si>
 </sst>
 </file>
@@ -1739,13 +1745,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV5"/>
+  <dimension ref="A1:AX5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,20 +1793,22 @@
     <col min="35" max="35" width="31" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="31" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="29" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="50" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="31" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="29" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="43" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="43" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -1913,40 +1921,46 @@
         <v>45</v>
       </c>
       <c r="AL1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -2039,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <f t="shared" ref="AE2:AE5" si="1">D2/2.016/S2*Q2/AN2/24/3600*F2</f>
+        <f t="shared" ref="AE2:AE5" si="1">D2/2.016/S2*Q2/AP2/24/3600*F2</f>
         <v>2.6426092969379242</v>
       </c>
       <c r="AF2" s="1">
@@ -2062,40 +2076,46 @@
         <v>0.25</v>
       </c>
       <c r="AL2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1">
         <v>300</v>
       </c>
-      <c r="AM2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="1">
+      <c r="AO2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="1">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AQ2" s="1">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AP2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="1">
+      <c r="AR2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="1">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AT2" s="1">
         <v>3500</v>
       </c>
-      <c r="AS2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>0</v>
-      </c>
       <c r="AU2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2212,40 +2232,46 @@
         <v>0.25</v>
       </c>
       <c r="AL3">
+        <v>0.25</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
         <v>300</v>
       </c>
-      <c r="AM3">
-        <v>1</v>
-      </c>
-      <c r="AN3">
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AO3">
+      <c r="AQ3">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AP3">
-        <v>1</v>
-      </c>
-      <c r="AQ3">
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AR3">
+      <c r="AT3">
         <v>3500</v>
       </c>
-      <c r="AS3">
-        <v>1</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
       <c r="AU3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2362,40 +2388,46 @@
         <v>0.25</v>
       </c>
       <c r="AL4">
+        <v>0.25</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
         <v>300</v>
       </c>
-      <c r="AM4">
-        <v>1</v>
-      </c>
-      <c r="AN4">
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AO4">
+      <c r="AQ4">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AP4">
-        <v>1</v>
-      </c>
-      <c r="AQ4">
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AR4">
+      <c r="AT4">
         <v>3500</v>
       </c>
-      <c r="AS4">
-        <v>1</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
       <c r="AU4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -2512,41 +2544,47 @@
         <v>0.25</v>
       </c>
       <c r="AL5">
+        <v>0.25</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
         <v>300</v>
       </c>
-      <c r="AM5">
-        <v>1</v>
-      </c>
-      <c r="AN5">
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AO5">
+      <c r="AQ5">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AP5">
-        <v>1</v>
-      </c>
-      <c r="AQ5">
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AR5">
+      <c r="AT5">
         <v>3500</v>
       </c>
-      <c r="AS5">
-        <v>1</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
       <c r="AU5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:AV5">
+  <conditionalFormatting sqref="C3:AX5">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>C3&lt;&gt;C$2</formula>
     </cfRule>
@@ -2791,15 +2829,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="72d00a49-d4df-4ae2-8448-0e7c38748169">
@@ -2808,6 +2837,15 @@
     <TaxCatchAll xmlns="cdbd341c-9425-4527-8200-dbc5093c0c26" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2831,14 +2869,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB52D826-44CA-4104-AA1D-CE7759CCAD0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3A8468-9818-4804-84E1-135F70628E6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2847,4 +2877,12 @@
     <ds:schemaRef ds:uri="cdbd341c-9425-4527-8200-dbc5093c0c26"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB52D826-44CA-4104-AA1D-CE7759CCAD0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/systems2atoms/systems/inputs/input_params_baseline.xlsx
+++ b/systems2atoms/systems/inputs/input_params_baseline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doellnl-my.sharepoint.com/personal/yuan13_llnl_gov/Documents/Documents/_work/projects/System to Atoms (S2A)/GitHub/systems2atoms/systems2atoms/systems/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{401E820F-D25F-3D46-84BE-224BE0C8BBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A63418F1-8263-41C5-8F45-0553FE2407F8}"/>
+  <xr:revisionPtr revIDLastSave="706" documentId="13_ncr:40009_{386061FE-3CDD-48D5-AA75-D7117555D095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDA50D74-30F0-4FAB-9A30-D15EFF0A634E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -38,7 +41,7 @@
     <author>Yuan, Mengyao</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E69AF14B-AA4E-4E26-959E-FBBD27782D10}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F534F6D7-4901-4F6A-8CC7-2E2C2D99DD41}">
       <text>
         <r>
           <rPr>
@@ -46,7 +49,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -55,14 +58,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Identifier; passthrough input (not used in calculations).</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{CD81A55F-A99E-4A56-B972-678F29DCB64C}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{149A9FCB-A214-484B-ACFA-43A1F3D93045}">
       <text>
         <r>
           <rPr>
@@ -70,7 +73,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -79,14 +82,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Used for output file #. Need to be different for each run.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{13073E9C-D811-47E4-B2BE-7D12539399FD}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{07439F81-7639-4D31-9818-6B9E6FB8B6C2}">
       <text>
         <r>
           <rPr>
@@ -94,7 +97,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -103,14 +106,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Dollar year of calculated costs.</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{ACA71E89-892C-48A7-882C-1D446A4F3744}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{915D608B-C9BE-457D-BD52-CFBE5A52D97D}">
       <text>
         <r>
           <rPr>
@@ -118,7 +121,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -127,14 +130,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Use in delivery pathway name (in output files).</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{E91F5129-45DF-4C7E-98CB-9EB0ECA2B407}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{C7611B61-73DE-427C-A544-5D1F8E91B3BD}">
       <text>
         <r>
           <rPr>
@@ -142,7 +145,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -151,14 +154,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 At target transport and storage conditions for given LOHC.</t>
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{1FA48B68-1334-4FAC-BF0B-33E0BBEB747F}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{5164F6DD-2EED-4C08-96E3-F9BB8501BC6D}">
       <text>
         <r>
           <rPr>
@@ -178,12 +181,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Accepted values are "thermo", "electro", or "purchase".
-Currently "thermo" formic acid production calculations are incomplete.</t>
+Used for mass balance. If feed is not H2 (e.g., H2O), convert to stoichiometric coefficent for H2.</t>
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{BE111B58-CF02-47A8-A900-0FE1C58D67F9}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{7B439CF8-FCC0-4775-90A9-4F164A871452}">
       <text>
         <r>
           <rPr>
@@ -203,29 +205,187 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Currently not used.
-Intended for "thermo" formic acid production calculations, which are currently incomplete.</t>
+Used for calculating CO2 recycling costs and dehydrogenation byproduct emissions. If CO2 is not used or produced in the reactions, fill out 0.</t>
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{6762C2A9-ED90-4F8A-ACBA-004F9BE735F8}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{3BA61561-4F80-4528-AEF8-1B98AE0EDD46}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Accepted values are "thermo", "electro", or "purchase".
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Currently "thermo" formic acid production calculations are incomplete.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{CE96F9E7-E862-4E63-9E2A-7C2E1947B8B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yuan, Mengyao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Currently not used.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Intended for "thermo" formic acid production calculations, which are currently incomplete.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{138103C3-8219-4014-8B1C-89126F5B990C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yuan, Mengyao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Placeholder.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Used for "thermo" formic acid production calculations, which are currently incomplete.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{164166BC-1CC9-4991-B115-786C2E89C324}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yuan, Mengyao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Placeholder.
@@ -233,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{D04DD905-76F8-48FD-B1A3-7586587FD9C8}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{D0E08A76-FEDD-465B-B1F6-7EB1A4DE89A4}">
       <text>
         <r>
           <rPr>
@@ -241,7 +401,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -250,7 +410,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Placeholder.
@@ -258,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{B12FB536-677E-448D-90D6-6B05614E32BF}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{3C10C9CD-EDDD-4D19-804C-ADAEB111B7E9}">
       <text>
         <r>
           <rPr>
@@ -266,7 +426,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -275,7 +435,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Placeholder.
@@ -283,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{85A575E1-5A04-4DA1-BB58-B3BCF3F55057}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{D4E417D2-A260-4ADD-92C4-7C5768A1F3F3}">
       <text>
         <r>
           <rPr>
@@ -291,7 +451,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -300,7 +460,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Placeholder.
@@ -308,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{53065B57-609C-4573-9453-189D2C9F884E}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{3AA9C85D-21E4-4C29-91E6-8D37525B5FC5}">
       <text>
         <r>
           <rPr>
@@ -316,7 +476,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -325,7 +485,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Placeholder.
@@ -333,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{0F29EAB0-39C2-4C84-B012-71138AA8BEA4}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{8B76EE6B-3B7E-457B-8FE3-545745C9ECC6}">
       <text>
         <r>
           <rPr>
@@ -341,7 +501,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -350,15 +510,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Placeholder.
-Used for "thermo" formic acid production calculations, which are currently incomplete.</t>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Currently not used.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{481A628E-2100-4163-B507-26D09F915FE1}">
+    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{30D85B9E-15E4-4604-8CAA-32B765517170}">
       <text>
         <r>
           <rPr>
@@ -366,7 +525,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -375,14 +534,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Currently not used.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{7B3A9B9D-8EFE-4593-9AE8-1DC567406CA3}">
+    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{3CEB65E5-8338-4451-AB5C-EBCA3C4962CC}">
       <text>
         <r>
           <rPr>
@@ -390,7 +549,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -399,14 +558,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Currently not used.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{6CEB0D03-8142-4461-B5D8-E2E1F9D69928}">
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{405935AC-9727-4D69-942C-356191EE2051}">
       <text>
         <r>
           <rPr>
@@ -414,7 +573,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -423,14 +582,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Currently not used.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{A7F3BD7A-BC91-4F82-8B30-22EC15A227B3}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{51C2103A-A013-48C5-9D57-2E5D4E766D9C}">
       <text>
         <r>
           <rPr>
@@ -438,7 +597,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -447,14 +606,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Currently not used.</t>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Example baseline inputs.</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{1E7F2DFD-E28F-40BA-BF84-2656FEB4603F}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{9119AC3A-05FD-4B3D-A32F-E6D463BD3ACA}">
       <text>
         <r>
           <rPr>
@@ -462,23 +621,24 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Yuan, Mengyao:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Example baseline inputs.</t>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Yuan, Mengyao:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Annual average retail electricity price for California industrial sector in 2022.
+Reference: U.S. Energy Information Administration, Electric Power Annual 2022, Washington, DC, 2023.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{214B6BAD-4E8B-4B8C-9A1B-A05799FF452B}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{6580F6B2-EE3A-48CB-B777-1841E43A5BCE}">
       <text>
         <r>
           <rPr>
@@ -486,24 +646,24 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Yuan, Mengyao:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Annual average retail electricity price for California industrial sector in 2022.
-Reference: U.S. Energy Information Administration, Electric Power Annual 2022, Washington, DC, 2023.</t>
+            <family val="2"/>
+          </rPr>
+          <t>Yuan, Mengyao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Annual average diesel price (on-highway, all types) in California in 2022.
+Reference: U.S. Energy Information Administration, Weekly Retail Gasoline and Diesel Prices. https://www.eia.gov/dnav/pet/pet_pri_gnd_dcus_nus_a.htm.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{CD78496C-361F-4AA2-A7B5-C49F252EFCEA}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{45965082-B84E-4012-B1F3-2B95F4D1F942}">
       <text>
         <r>
           <rPr>
@@ -511,7 +671,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -520,15 +680,15 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Annual average diesel price (on-highway, all types) in California in 2022.
-Reference: U.S. Energy Information Administration, Weekly Retail Gasoline and Diesel Prices. https://www.eia.gov/dnav/pet/pet_pri_gnd_dcus_nus_a.htm.</t>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2021 State Electricity Profiles, California, CO2 emissions rate. Converted from lb/MWh.
+https://www.eia.gov/electricity/state/california/</t>
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{6E182C7D-C4A7-4883-AEF9-502B2BDB4F6F}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{7CAF2FE8-6AE9-451E-AA78-4E49C5EC0056}">
       <text>
         <r>
           <rPr>
@@ -536,7 +696,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -545,15 +705,15 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-2021 State Electricity Profiles, California, CO2 emissions rate. Converted from lb/MWh.
-https://www.eia.gov/electricity/state/california/</t>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+EPA, "Greenhouse Gases Equivalencies Calculator - Calculations and References", "Gallons of diesel consumed".
+https://www.epa.gov/energy/greenhouse-gases-equivalencies-calculator-calculations-and-references</t>
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{A4A58B15-9A8C-4A09-8F6B-3EA07859A592}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{78230218-071F-43FB-99E0-1C55D385CD29}">
       <text>
         <r>
           <rPr>
@@ -561,7 +721,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -570,40 +730,108 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-EPA, "Greenhouse Gases Equivalencies Calculator - Calculations and References", "Gallons of diesel consumed".
-https://www.epa.gov/energy/greenhouse-gases-equivalencies-calculator-calculations-and-references</t>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Levelized cost of fuel production for hydrogen produced from electrolysis with Inflation Reduction Act tax credits.
+Cheng et al., 2023, Environ. Sci. Technol. https://doi.org/10.1021/acs.est.3c03063.</t>
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{ED41E46E-89DA-4353-BA76-6AC3E7C714C9}">
+    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{8205285B-115C-47F0-8185-1199E3B70079}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Levelized cost of fuel production for hydrogen produced from electrolysis with Inflation Reduction Act tax credits.
-Cheng et al., 2023, Environ. Sci. Technol. https://doi.org/10.1021/acs.est.3c03063.</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Cell voltage for hydrogen oxidation. Calculated assuming a cell voltage of 2.5 V for water oxidation [1,2] and a reversible potential for water oxidation relative to hydrogen oxidation of 1.23 V (i.e., 2.5 V − 1.23 V = 1.27 V) [3].
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[1] B. S. Crandall, T. Brix, R. S. Weber and F. Jiao, Energ Fuel, 2022, 37, 1441-1450.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[2] M. Ramdin, A. R. T. Morrison, M. de Groen, R. van Haperen, R. de Kler, L. J. P. van den Broeke, J. P. M. Trusler, W. de Jong and T. J. H. Vlugt, Ind Eng Chem Res, 2019, 58, 1834-1847.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>[3] W. Q. Li, J. T. Feaster, S. A. Akhade, J. T. Davis, A. A. Wong, V. A. Beck, J. B. Varley, S. A. Hawks, M. Stadermann, C. Hahn, R. D. Aines, E. B. Duoss and S. E. Baker, ACS Sustain Chem Eng, 2021, 9, 14678-14689.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{C26BA404-EDC2-4E3C-8D61-9D1F07B5884C}">
+    <comment ref="AH2" authorId="0" shapeId="0" xr:uid="{620FA4F2-8917-46B3-ABA1-BF61E4D757BE}">
       <text>
         <r>
           <rPr>
@@ -611,7 +839,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -620,17 +848,15 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Cell voltage for hydrogen oxidation. Calculated assuming a cell voltage of 2.5 V for water oxidation [1,2] and a reversible potential for water oxidation relative to hydrogen oxidation of 1.23 V (i.e., 2.5 V − 1.23 V = 1.27 V) [3].
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 [1] B. S. Crandall, T. Brix, R. S. Weber and F. Jiao, Energ Fuel, 2022, 37, 1441-1450.
-[2] M. Ramdin, A. R. T. Morrison, M. de Groen, R. van Haperen, R. de Kler, L. J. P. van den Broeke, J. P. M. Trusler, W. de Jong and T. J. H. Vlugt, Ind Eng Chem Res, 2019, 58, 1834-1847.
-[3] W. Q. Li, J. T. Feaster, S. A. Akhade, J. T. Davis, A. A. Wong, V. A. Beck, J. B. Varley, S. A. Hawks, M. Stadermann, C. Hahn, R. D. Aines, E. B. Duoss and S. E. Baker, ACS Sustain Chem Eng, 2021, 9, 14678-14689.</t>
+[2] M. Ramdin, A. R. T. Morrison, M. de Groen, R. van Haperen, R. de Kler, L. J. P. van den Broeke, J. P. M. Trusler, W. de Jong and T. J. H. Vlugt, Ind Eng Chem Res, 2019, 58, 1834-1847.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="0" shapeId="0" xr:uid="{CE68BB1E-799F-4775-B8CB-797AF6A59114}">
+    <comment ref="AJ2" authorId="0" shapeId="0" xr:uid="{CA9200E2-D037-4AA9-A995-8A3543F0E07D}">
       <text>
         <r>
           <rPr>
@@ -638,7 +864,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -647,32 +873,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-[1] B. S. Crandall, T. Brix, R. S. Weber and F. Jiao, Energ Fuel, 2022, 37, 1441-1450.
-[2] M. Ramdin, A. R. T. Morrison, M. de Groen, R. van Haperen, R. de Kler, L. J. P. van den Broeke, J. P. M. Trusler, W. de Jong and T. J. H. Vlugt, Ind Eng Chem Res, 2019, 58, 1834-1847.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ2" authorId="0" shapeId="0" xr:uid="{77C5F196-F835-437B-A591-6FA79B666A10}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Yuan, Mengyao:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Use current alkaline hydrogen electrolyzer cost as a target for CO2 electrolyzer.
@@ -687,6 +888,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
+    <t>scenario</t>
+  </si>
+  <si>
     <t>run #</t>
   </si>
   <si>
@@ -696,6 +900,9 @@
     <t>target station capacity (kg/day)</t>
   </si>
   <si>
+    <t>station annual capacity factor</t>
+  </si>
+  <si>
     <t>target number of stations</t>
   </si>
   <si>
@@ -717,9 +924,30 @@
     <t>hydrogen prod. emission factor (kg CO2-eq/kg)</t>
   </si>
   <si>
+    <t>LOHC prod. emission factor (kg CO2-eq/kg)</t>
+  </si>
+  <si>
     <t>hydrogen purchase cost ($/kg)</t>
   </si>
   <si>
+    <t>LOHC purchase cost ($/kg)</t>
+  </si>
+  <si>
+    <t>LOHC name</t>
+  </si>
+  <si>
+    <t>LOHC molar mass (kg/kmol)</t>
+  </si>
+  <si>
+    <t>LOHC density (kg/m^3)</t>
+  </si>
+  <si>
+    <t>stoic. ratio (mol H2/mol LOHC)</t>
+  </si>
+  <si>
+    <t>LOHC production pathway</t>
+  </si>
+  <si>
     <t>hydr. reaction temperature (K)</t>
   </si>
   <si>
@@ -747,10 +975,25 @@
     <t>hydr. reactor energy (unit TBD)</t>
   </si>
   <si>
+    <t>hydr. LOHC output flowrate (kg/s)</t>
+  </si>
+  <si>
+    <t>hydr. electrolyzer cell area (m^2/cell)</t>
+  </si>
+  <si>
+    <t>hydr. electrolyzer voltage (V)</t>
+  </si>
+  <si>
+    <t>hydr. electrolyzer current density (A/m^2)</t>
+  </si>
+  <si>
+    <t>hydr. separator energy (unit TBD)</t>
+  </si>
+  <si>
     <t>CO2 electrolyzer purchase cost ($/m^2)</t>
   </si>
   <si>
-    <t>hydr. separator energy (unit TBD)</t>
+    <t>terminal LOHC storage amount (days)</t>
   </si>
   <si>
     <t>dehydr. reaction temperature (K)</t>
@@ -783,73 +1026,31 @@
     <t>dehydr. gas/liquid separator energy (unit TBD)</t>
   </si>
   <si>
+    <t>station LOHC storage amount (days)</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>formic acid</t>
+  </si>
+  <si>
     <t>electro</t>
   </si>
   <si>
-    <t>scenario</t>
-  </si>
-  <si>
-    <t>baseline</t>
+    <t>FA - delivery only</t>
   </si>
   <si>
     <t>purchase</t>
   </si>
   <si>
-    <t>station annual capacity factor</t>
-  </si>
-  <si>
-    <t>FA - delivery only</t>
-  </si>
-  <si>
     <t>FA - closed loop</t>
   </si>
   <si>
     <t>FA - closed loop - 80 cap factor</t>
   </si>
   <si>
-    <t>hydr. electrolyzer voltage (V)</t>
-  </si>
-  <si>
-    <t>hydr. electrolyzer current density (A/m^2)</t>
-  </si>
-  <si>
-    <t>LOHC prod. emission factor (kg CO2-eq/kg)</t>
-  </si>
-  <si>
-    <t>LOHC purchase cost ($/kg)</t>
-  </si>
-  <si>
-    <t>LOHC production pathway</t>
-  </si>
-  <si>
-    <t>terminal LOHC storage amount (days)</t>
-  </si>
-  <si>
-    <t>station LOHC storage amount (days)</t>
-  </si>
-  <si>
-    <t>LOHC name</t>
-  </si>
-  <si>
-    <t>formic acid</t>
-  </si>
-  <si>
-    <t>LOHC molar mass (kg/kmol)</t>
-  </si>
-  <si>
-    <t>LOHC density (kg/m^3)</t>
-  </si>
-  <si>
-    <t>stoic. ratio (mol H2/mol LOHC)</t>
-  </si>
-  <si>
     <t>stoic. ratio (mol CO2/mol LOHC)</t>
-  </si>
-  <si>
-    <t>hydr. LOHC output flowrate (kg/s)</t>
-  </si>
-  <si>
-    <t>hydr. electrolyzer cell area (m^2/cell)</t>
   </si>
   <si>
     <t>terminal compressed hydrogen storage amount (days)</t>
@@ -862,7 +1063,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1012,6 +1213,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1377,8 +1604,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1747,11 +1974,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM1" sqref="AM1"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,29 +1992,29 @@
     <col min="7" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="31.85546875" customWidth="1"/>
-    <col min="32" max="32" width="34.140625" customWidth="1"/>
+    <col min="31" max="31" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="31" bestFit="1" customWidth="1"/>
@@ -1809,160 +2036,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="AJ1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="AO1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="AU1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" s="2" t="s">
+      <c r="AV1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AW1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AL1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -2023,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="V2" s="1">
         <v>366.15</v>
@@ -2053,12 +2280,12 @@
         <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <f t="shared" ref="AE2:AE5" si="1">D2/2.016/S2*Q2/AP2/24/3600*F2</f>
+        <f t="shared" ref="AE2:AE5" si="1">D2*F2/2.016/S2*Q2/AP2/24/3600</f>
         <v>2.6426092969379242</v>
       </c>
       <c r="AF2" s="1">
-        <f t="shared" ref="AF2:AF5" si="2">2*96485/AH2*AE2</f>
-        <v>254.97215801505561</v>
+        <f t="shared" ref="AF2:AF5" si="2">2*96485/AH2*AE2/Q2*1000</f>
+        <v>5539.8622056503118</v>
       </c>
       <c r="AG2" s="1">
         <v>1.27</v>
@@ -2117,10 +2344,10 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B5" si="3">B2+1</f>
+        <f t="shared" ref="B3:B4" si="3">B2+1</f>
         <v>1</v>
       </c>
       <c r="C3">
@@ -2179,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="V3">
         <v>366.15</v>
@@ -2214,7 +2441,7 @@
       </c>
       <c r="AF3">
         <f t="shared" si="2"/>
-        <v>254.97215801505561</v>
+        <v>5539.8622056503118</v>
       </c>
       <c r="AG3">
         <v>1.27</v>
@@ -2273,7 +2500,7 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <f t="shared" si="3"/>
@@ -2335,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="V4">
         <v>366.15</v>
@@ -2370,7 +2597,7 @@
       </c>
       <c r="AF4">
         <f t="shared" si="2"/>
-        <v>254.97215801505561</v>
+        <v>5539.8622056503118</v>
       </c>
       <c r="AG4">
         <v>1.27</v>
@@ -2429,10 +2656,10 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B5">
-        <f t="shared" si="3"/>
+        <f>B4+1</f>
         <v>3</v>
       </c>
       <c r="C5">
@@ -2491,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="U5" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="V5">
         <v>366.15</v>
@@ -2526,7 +2753,7 @@
       </c>
       <c r="AF5">
         <f t="shared" si="2"/>
-        <v>254.97215801505561</v>
+        <v>5539.8622056503118</v>
       </c>
       <c r="AG5">
         <v>1.27</v>
@@ -2585,7 +2812,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:AX5">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>C3&lt;&gt;C$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2595,6 +2822,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="72d00a49-d4df-4ae2-8448-0e7c38748169">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="cdbd341c-9425-4527-8200-dbc5093c0c26" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010001B4E99C690CD84D8C14FB9B89CF5CA2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7d6ebaee038f40569f500d908425f89c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72d00a49-d4df-4ae2-8448-0e7c38748169" xmlns:ns3="cdbd341c-9425-4527-8200-dbc5093c0c26" xmlns:ns4="cc3aaed6-9815-470c-8f7f-f66d9ca72b53" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d22da384523c48d606acb8860bdc860" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="72d00a49-d4df-4ae2-8448-0e7c38748169"/>
@@ -2828,17 +3066,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="72d00a49-d4df-4ae2-8448-0e7c38748169">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="cdbd341c-9425-4527-8200-dbc5093c0c26" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2849,6 +3076,24 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3A8468-9818-4804-84E1-135F70628E6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="cc3aaed6-9815-470c-8f7f-f66d9ca72b53"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cdbd341c-9425-4527-8200-dbc5093c0c26"/>
+    <ds:schemaRef ds:uri="72d00a49-d4df-4ae2-8448-0e7c38748169"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB2DAFF9-D831-4A8A-A26B-34A3990B404D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2868,17 +3113,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3A8468-9818-4804-84E1-135F70628E6B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="72d00a49-d4df-4ae2-8448-0e7c38748169"/>
-    <ds:schemaRef ds:uri="cdbd341c-9425-4527-8200-dbc5093c0c26"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB52D826-44CA-4104-AA1D-CE7759CCAD0E}">
   <ds:schemaRefs>

--- a/systems2atoms/systems/inputs/input_params_baseline.xlsx
+++ b/systems2atoms/systems/inputs/input_params_baseline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doellnl-my.sharepoint.com/personal/yuan13_llnl_gov/Documents/Documents/_work/projects/System to Atoms (S2A)/GitHub/systems2atoms/systems2atoms/systems/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{401E820F-D25F-3D46-84BE-224BE0C8BBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="706" documentId="13_ncr:40009_{386061FE-3CDD-48D5-AA75-D7117555D095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDA50D74-30F0-4FAB-9A30-D15EFF0A634E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -38,7 +41,7 @@
     <author>Yuan, Mengyao</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E69AF14B-AA4E-4E26-959E-FBBD27782D10}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F534F6D7-4901-4F6A-8CC7-2E2C2D99DD41}">
       <text>
         <r>
           <rPr>
@@ -46,7 +49,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -55,14 +58,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Identifier; passthrough input (not used in calculations).</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{CD81A55F-A99E-4A56-B972-678F29DCB64C}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{149A9FCB-A214-484B-ACFA-43A1F3D93045}">
       <text>
         <r>
           <rPr>
@@ -70,7 +73,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -79,14 +82,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Used for output file #. Need to be different for each run.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{13073E9C-D811-47E4-B2BE-7D12539399FD}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{07439F81-7639-4D31-9818-6B9E6FB8B6C2}">
       <text>
         <r>
           <rPr>
@@ -94,7 +97,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -103,14 +106,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Dollar year of calculated costs.</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{ACA71E89-892C-48A7-882C-1D446A4F3744}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{915D608B-C9BE-457D-BD52-CFBE5A52D97D}">
       <text>
         <r>
           <rPr>
@@ -118,7 +121,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -127,14 +130,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Use in delivery pathway name (in output files).</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{E91F5129-45DF-4C7E-98CB-9EB0ECA2B407}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{C7611B61-73DE-427C-A544-5D1F8E91B3BD}">
       <text>
         <r>
           <rPr>
@@ -142,7 +145,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -151,14 +154,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 At target transport and storage conditions for given LOHC.</t>
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{1FA48B68-1334-4FAC-BF0B-33E0BBEB747F}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{5164F6DD-2EED-4C08-96E3-F9BB8501BC6D}">
       <text>
         <r>
           <rPr>
@@ -178,12 +181,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Accepted values are "thermo", "electro", or "purchase".
-Currently "thermo" formic acid production calculations are incomplete.</t>
+Used for mass balance. If feed is not H2 (e.g., H2O), convert to stoichiometric coefficent for H2.</t>
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{BE111B58-CF02-47A8-A900-0FE1C58D67F9}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{7B439CF8-FCC0-4775-90A9-4F164A871452}">
       <text>
         <r>
           <rPr>
@@ -203,29 +205,187 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Currently not used.
-Intended for "thermo" formic acid production calculations, which are currently incomplete.</t>
+Used for calculating CO2 recycling costs and dehydrogenation byproduct emissions. If CO2 is not used or produced in the reactions, fill out 0.</t>
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{6762C2A9-ED90-4F8A-ACBA-004F9BE735F8}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{3BA61561-4F80-4528-AEF8-1B98AE0EDD46}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Accepted values are "thermo", "electro", or "purchase".
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Currently "thermo" formic acid production calculations are incomplete.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{CE96F9E7-E862-4E63-9E2A-7C2E1947B8B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yuan, Mengyao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Currently not used.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Intended for "thermo" formic acid production calculations, which are currently incomplete.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{138103C3-8219-4014-8B1C-89126F5B990C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yuan, Mengyao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Placeholder.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Used for "thermo" formic acid production calculations, which are currently incomplete.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{164166BC-1CC9-4991-B115-786C2E89C324}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yuan, Mengyao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Placeholder.
@@ -233,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{D04DD905-76F8-48FD-B1A3-7586587FD9C8}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{D0E08A76-FEDD-465B-B1F6-7EB1A4DE89A4}">
       <text>
         <r>
           <rPr>
@@ -241,7 +401,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -250,7 +410,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Placeholder.
@@ -258,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{B12FB536-677E-448D-90D6-6B05614E32BF}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{3C10C9CD-EDDD-4D19-804C-ADAEB111B7E9}">
       <text>
         <r>
           <rPr>
@@ -266,7 +426,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -275,7 +435,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Placeholder.
@@ -283,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{85A575E1-5A04-4DA1-BB58-B3BCF3F55057}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{D4E417D2-A260-4ADD-92C4-7C5768A1F3F3}">
       <text>
         <r>
           <rPr>
@@ -291,7 +451,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -300,7 +460,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Placeholder.
@@ -308,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{53065B57-609C-4573-9453-189D2C9F884E}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{3AA9C85D-21E4-4C29-91E6-8D37525B5FC5}">
       <text>
         <r>
           <rPr>
@@ -316,7 +476,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -325,7 +485,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Placeholder.
@@ -333,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{0F29EAB0-39C2-4C84-B012-71138AA8BEA4}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{8B76EE6B-3B7E-457B-8FE3-545745C9ECC6}">
       <text>
         <r>
           <rPr>
@@ -341,7 +501,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -350,15 +510,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Placeholder.
-Used for "thermo" formic acid production calculations, which are currently incomplete.</t>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Currently not used.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{481A628E-2100-4163-B507-26D09F915FE1}">
+    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{30D85B9E-15E4-4604-8CAA-32B765517170}">
       <text>
         <r>
           <rPr>
@@ -366,7 +525,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -375,14 +534,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Currently not used.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{7B3A9B9D-8EFE-4593-9AE8-1DC567406CA3}">
+    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{3CEB65E5-8338-4451-AB5C-EBCA3C4962CC}">
       <text>
         <r>
           <rPr>
@@ -390,7 +549,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -399,14 +558,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Currently not used.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{6CEB0D03-8142-4461-B5D8-E2E1F9D69928}">
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{405935AC-9727-4D69-942C-356191EE2051}">
       <text>
         <r>
           <rPr>
@@ -414,7 +573,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -423,14 +582,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Currently not used.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{A7F3BD7A-BC91-4F82-8B30-22EC15A227B3}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{51C2103A-A013-48C5-9D57-2E5D4E766D9C}">
       <text>
         <r>
           <rPr>
@@ -438,7 +597,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -447,14 +606,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Currently not used.</t>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Example baseline inputs.</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{1E7F2DFD-E28F-40BA-BF84-2656FEB4603F}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{9119AC3A-05FD-4B3D-A32F-E6D463BD3ACA}">
       <text>
         <r>
           <rPr>
@@ -462,23 +621,24 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Yuan, Mengyao:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Example baseline inputs.</t>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Yuan, Mengyao:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Annual average retail electricity price for California industrial sector in 2022.
+Reference: U.S. Energy Information Administration, Electric Power Annual 2022, Washington, DC, 2023.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{214B6BAD-4E8B-4B8C-9A1B-A05799FF452B}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{6580F6B2-EE3A-48CB-B777-1841E43A5BCE}">
       <text>
         <r>
           <rPr>
@@ -486,24 +646,24 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Yuan, Mengyao:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Annual average retail electricity price for California industrial sector in 2022.
-Reference: U.S. Energy Information Administration, Electric Power Annual 2022, Washington, DC, 2023.</t>
+            <family val="2"/>
+          </rPr>
+          <t>Yuan, Mengyao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Annual average diesel price (on-highway, all types) in California in 2022.
+Reference: U.S. Energy Information Administration, Weekly Retail Gasoline and Diesel Prices. https://www.eia.gov/dnav/pet/pet_pri_gnd_dcus_nus_a.htm.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{CD78496C-361F-4AA2-A7B5-C49F252EFCEA}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{45965082-B84E-4012-B1F3-2B95F4D1F942}">
       <text>
         <r>
           <rPr>
@@ -511,7 +671,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -520,15 +680,15 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Annual average diesel price (on-highway, all types) in California in 2022.
-Reference: U.S. Energy Information Administration, Weekly Retail Gasoline and Diesel Prices. https://www.eia.gov/dnav/pet/pet_pri_gnd_dcus_nus_a.htm.</t>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2021 State Electricity Profiles, California, CO2 emissions rate. Converted from lb/MWh.
+https://www.eia.gov/electricity/state/california/</t>
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{6E182C7D-C4A7-4883-AEF9-502B2BDB4F6F}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{7CAF2FE8-6AE9-451E-AA78-4E49C5EC0056}">
       <text>
         <r>
           <rPr>
@@ -536,7 +696,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -545,15 +705,15 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-2021 State Electricity Profiles, California, CO2 emissions rate. Converted from lb/MWh.
-https://www.eia.gov/electricity/state/california/</t>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+EPA, "Greenhouse Gases Equivalencies Calculator - Calculations and References", "Gallons of diesel consumed".
+https://www.epa.gov/energy/greenhouse-gases-equivalencies-calculator-calculations-and-references</t>
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{A4A58B15-9A8C-4A09-8F6B-3EA07859A592}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{78230218-071F-43FB-99E0-1C55D385CD29}">
       <text>
         <r>
           <rPr>
@@ -561,7 +721,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -570,40 +730,108 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-EPA, "Greenhouse Gases Equivalencies Calculator - Calculations and References", "Gallons of diesel consumed".
-https://www.epa.gov/energy/greenhouse-gases-equivalencies-calculator-calculations-and-references</t>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Levelized cost of fuel production for hydrogen produced from electrolysis with Inflation Reduction Act tax credits.
+Cheng et al., 2023, Environ. Sci. Technol. https://doi.org/10.1021/acs.est.3c03063.</t>
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{ED41E46E-89DA-4353-BA76-6AC3E7C714C9}">
+    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{8205285B-115C-47F0-8185-1199E3B70079}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Levelized cost of fuel production for hydrogen produced from electrolysis with Inflation Reduction Act tax credits.
-Cheng et al., 2023, Environ. Sci. Technol. https://doi.org/10.1021/acs.est.3c03063.</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Cell voltage for hydrogen oxidation. Calculated assuming a cell voltage of 2.5 V for water oxidation [1,2] and a reversible potential for water oxidation relative to hydrogen oxidation of 1.23 V (i.e., 2.5 V − 1.23 V = 1.27 V) [3].
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[1] B. S. Crandall, T. Brix, R. S. Weber and F. Jiao, Energ Fuel, 2022, 37, 1441-1450.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[2] M. Ramdin, A. R. T. Morrison, M. de Groen, R. van Haperen, R. de Kler, L. J. P. van den Broeke, J. P. M. Trusler, W. de Jong and T. J. H. Vlugt, Ind Eng Chem Res, 2019, 58, 1834-1847.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>[3] W. Q. Li, J. T. Feaster, S. A. Akhade, J. T. Davis, A. A. Wong, V. A. Beck, J. B. Varley, S. A. Hawks, M. Stadermann, C. Hahn, R. D. Aines, E. B. Duoss and S. E. Baker, ACS Sustain Chem Eng, 2021, 9, 14678-14689.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{C26BA404-EDC2-4E3C-8D61-9D1F07B5884C}">
+    <comment ref="AH2" authorId="0" shapeId="0" xr:uid="{620FA4F2-8917-46B3-ABA1-BF61E4D757BE}">
       <text>
         <r>
           <rPr>
@@ -611,7 +839,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -620,17 +848,15 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Cell voltage for hydrogen oxidation. Calculated assuming a cell voltage of 2.5 V for water oxidation [1,2] and a reversible potential for water oxidation relative to hydrogen oxidation of 1.23 V (i.e., 2.5 V − 1.23 V = 1.27 V) [3].
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 [1] B. S. Crandall, T. Brix, R. S. Weber and F. Jiao, Energ Fuel, 2022, 37, 1441-1450.
-[2] M. Ramdin, A. R. T. Morrison, M. de Groen, R. van Haperen, R. de Kler, L. J. P. van den Broeke, J. P. M. Trusler, W. de Jong and T. J. H. Vlugt, Ind Eng Chem Res, 2019, 58, 1834-1847.
-[3] W. Q. Li, J. T. Feaster, S. A. Akhade, J. T. Davis, A. A. Wong, V. A. Beck, J. B. Varley, S. A. Hawks, M. Stadermann, C. Hahn, R. D. Aines, E. B. Duoss and S. E. Baker, ACS Sustain Chem Eng, 2021, 9, 14678-14689.</t>
+[2] M. Ramdin, A. R. T. Morrison, M. de Groen, R. van Haperen, R. de Kler, L. J. P. van den Broeke, J. P. M. Trusler, W. de Jong and T. J. H. Vlugt, Ind Eng Chem Res, 2019, 58, 1834-1847.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="0" shapeId="0" xr:uid="{CE68BB1E-799F-4775-B8CB-797AF6A59114}">
+    <comment ref="AJ2" authorId="0" shapeId="0" xr:uid="{CA9200E2-D037-4AA9-A995-8A3543F0E07D}">
       <text>
         <r>
           <rPr>
@@ -638,7 +864,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -647,32 +873,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-[1] B. S. Crandall, T. Brix, R. S. Weber and F. Jiao, Energ Fuel, 2022, 37, 1441-1450.
-[2] M. Ramdin, A. R. T. Morrison, M. de Groen, R. van Haperen, R. de Kler, L. J. P. van den Broeke, J. P. M. Trusler, W. de Jong and T. J. H. Vlugt, Ind Eng Chem Res, 2019, 58, 1834-1847.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ2" authorId="0" shapeId="0" xr:uid="{77C5F196-F835-437B-A591-6FA79B666A10}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Yuan, Mengyao:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Use current alkaline hydrogen electrolyzer cost as a target for CO2 electrolyzer.
@@ -685,7 +886,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+  <si>
+    <t>scenario</t>
+  </si>
   <si>
     <t>run #</t>
   </si>
@@ -696,6 +900,9 @@
     <t>target station capacity (kg/day)</t>
   </si>
   <si>
+    <t>station annual capacity factor</t>
+  </si>
+  <si>
     <t>target number of stations</t>
   </si>
   <si>
@@ -717,9 +924,30 @@
     <t>hydrogen prod. emission factor (kg CO2-eq/kg)</t>
   </si>
   <si>
+    <t>LOHC prod. emission factor (kg CO2-eq/kg)</t>
+  </si>
+  <si>
     <t>hydrogen purchase cost ($/kg)</t>
   </si>
   <si>
+    <t>LOHC purchase cost ($/kg)</t>
+  </si>
+  <si>
+    <t>LOHC name</t>
+  </si>
+  <si>
+    <t>LOHC molar mass (kg/kmol)</t>
+  </si>
+  <si>
+    <t>LOHC density (kg/m^3)</t>
+  </si>
+  <si>
+    <t>stoic. ratio (mol H2/mol LOHC)</t>
+  </si>
+  <si>
+    <t>LOHC production pathway</t>
+  </si>
+  <si>
     <t>hydr. reaction temperature (K)</t>
   </si>
   <si>
@@ -747,10 +975,25 @@
     <t>hydr. reactor energy (unit TBD)</t>
   </si>
   <si>
+    <t>hydr. LOHC output flowrate (kg/s)</t>
+  </si>
+  <si>
+    <t>hydr. electrolyzer cell area (m^2/cell)</t>
+  </si>
+  <si>
+    <t>hydr. electrolyzer voltage (V)</t>
+  </si>
+  <si>
+    <t>hydr. electrolyzer current density (A/m^2)</t>
+  </si>
+  <si>
+    <t>hydr. separator energy (unit TBD)</t>
+  </si>
+  <si>
     <t>CO2 electrolyzer purchase cost ($/m^2)</t>
   </si>
   <si>
-    <t>hydr. separator energy (unit TBD)</t>
+    <t>terminal LOHC storage amount (days)</t>
   </si>
   <si>
     <t>dehydr. reaction temperature (K)</t>
@@ -783,80 +1026,44 @@
     <t>dehydr. gas/liquid separator energy (unit TBD)</t>
   </si>
   <si>
+    <t>station LOHC storage amount (days)</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>formic acid</t>
+  </si>
+  <si>
     <t>electro</t>
   </si>
   <si>
-    <t>scenario</t>
-  </si>
-  <si>
-    <t>baseline</t>
+    <t>FA - delivery only</t>
   </si>
   <si>
     <t>purchase</t>
   </si>
   <si>
-    <t>station annual capacity factor</t>
-  </si>
-  <si>
-    <t>FA - delivery only</t>
-  </si>
-  <si>
     <t>FA - closed loop</t>
   </si>
   <si>
     <t>FA - closed loop - 80 cap factor</t>
   </si>
   <si>
-    <t>hydr. electrolyzer voltage (V)</t>
-  </si>
-  <si>
-    <t>hydr. electrolyzer current density (A/m^2)</t>
-  </si>
-  <si>
-    <t>LOHC prod. emission factor (kg CO2-eq/kg)</t>
-  </si>
-  <si>
-    <t>LOHC purchase cost ($/kg)</t>
-  </si>
-  <si>
-    <t>LOHC production pathway</t>
-  </si>
-  <si>
-    <t>terminal LOHC storage amount (days)</t>
-  </si>
-  <si>
-    <t>station LOHC storage amount (days)</t>
-  </si>
-  <si>
-    <t>LOHC name</t>
-  </si>
-  <si>
-    <t>formic acid</t>
-  </si>
-  <si>
-    <t>LOHC molar mass (kg/kmol)</t>
-  </si>
-  <si>
-    <t>LOHC density (kg/m^3)</t>
-  </si>
-  <si>
-    <t>stoic. ratio (mol H2/mol LOHC)</t>
-  </si>
-  <si>
     <t>stoic. ratio (mol CO2/mol LOHC)</t>
   </si>
   <si>
-    <t>hydr. LOHC output flowrate (kg/s)</t>
-  </si>
-  <si>
-    <t>hydr. electrolyzer cell area (m^2/cell)</t>
+    <t>terminal compressed hydrogen storage amount (days)</t>
+  </si>
+  <si>
+    <t>terminal liquid hydrogen storage amount (days)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1006,6 +1213,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1371,8 +1604,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1739,13 +1972,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV5"/>
+  <dimension ref="A1:AX5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,196 +1992,204 @@
     <col min="7" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="31.85546875" customWidth="1"/>
-    <col min="32" max="32" width="34.140625" customWidth="1"/>
+    <col min="31" max="31" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="31" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="31" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="29" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="50" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="31" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="29" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="43" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="43" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="AJ1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="AO1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="AU1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="AV1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -2009,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="V2" s="1">
         <v>366.15</v>
@@ -2039,12 +2280,12 @@
         <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <f t="shared" ref="AE2:AE5" si="1">D2/2.016/S2*Q2/AN2/24/3600*F2</f>
+        <f t="shared" ref="AE2:AE5" si="1">D2*F2/2.016/S2*Q2/AP2/24/3600</f>
         <v>2.6426092969379242</v>
       </c>
       <c r="AF2" s="1">
-        <f t="shared" ref="AF2:AF5" si="2">2*96485/AH2*AE2</f>
-        <v>254.97215801505561</v>
+        <f t="shared" ref="AF2:AF5" si="2">2*96485/AH2*AE2/Q2*1000</f>
+        <v>5539.8622056503118</v>
       </c>
       <c r="AG2" s="1">
         <v>1.27</v>
@@ -2062,45 +2303,51 @@
         <v>0.25</v>
       </c>
       <c r="AL2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1">
         <v>300</v>
       </c>
-      <c r="AM2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="1">
+      <c r="AO2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="1">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AQ2" s="1">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AP2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="1">
+      <c r="AR2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="1">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AT2" s="1">
         <v>3500</v>
       </c>
-      <c r="AS2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>0</v>
-      </c>
       <c r="AU2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B5" si="3">B2+1</f>
+        <f t="shared" ref="B3:B4" si="3">B2+1</f>
         <v>1</v>
       </c>
       <c r="C3">
@@ -2159,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="V3">
         <v>366.15</v>
@@ -2194,7 +2441,7 @@
       </c>
       <c r="AF3">
         <f t="shared" si="2"/>
-        <v>254.97215801505561</v>
+        <v>5539.8622056503118</v>
       </c>
       <c r="AG3">
         <v>1.27</v>
@@ -2212,42 +2459,48 @@
         <v>0.25</v>
       </c>
       <c r="AL3">
+        <v>0.25</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
         <v>300</v>
       </c>
-      <c r="AM3">
-        <v>1</v>
-      </c>
-      <c r="AN3">
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AO3">
+      <c r="AQ3">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AP3">
-        <v>1</v>
-      </c>
-      <c r="AQ3">
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AR3">
+      <c r="AT3">
         <v>3500</v>
       </c>
-      <c r="AS3">
-        <v>1</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
       <c r="AU3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <f t="shared" si="3"/>
@@ -2309,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="V4">
         <v>366.15</v>
@@ -2344,7 +2597,7 @@
       </c>
       <c r="AF4">
         <f t="shared" si="2"/>
-        <v>254.97215801505561</v>
+        <v>5539.8622056503118</v>
       </c>
       <c r="AG4">
         <v>1.27</v>
@@ -2362,45 +2615,51 @@
         <v>0.25</v>
       </c>
       <c r="AL4">
+        <v>0.25</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
         <v>300</v>
       </c>
-      <c r="AM4">
-        <v>1</v>
-      </c>
-      <c r="AN4">
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AO4">
+      <c r="AQ4">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AP4">
-        <v>1</v>
-      </c>
-      <c r="AQ4">
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AR4">
+      <c r="AT4">
         <v>3500</v>
       </c>
-      <c r="AS4">
-        <v>1</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
       <c r="AU4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B5">
-        <f t="shared" si="3"/>
+        <f>B4+1</f>
         <v>3</v>
       </c>
       <c r="C5">
@@ -2459,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="U5" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="V5">
         <v>366.15</v>
@@ -2494,7 +2753,7 @@
       </c>
       <c r="AF5">
         <f t="shared" si="2"/>
-        <v>254.97215801505561</v>
+        <v>5539.8622056503118</v>
       </c>
       <c r="AG5">
         <v>1.27</v>
@@ -2512,42 +2771,48 @@
         <v>0.25</v>
       </c>
       <c r="AL5">
+        <v>0.25</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
         <v>300</v>
       </c>
-      <c r="AM5">
-        <v>1</v>
-      </c>
-      <c r="AN5">
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AO5">
+      <c r="AQ5">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AP5">
-        <v>1</v>
-      </c>
-      <c r="AQ5">
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AR5">
+      <c r="AT5">
         <v>3500</v>
       </c>
-      <c r="AS5">
-        <v>1</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
       <c r="AU5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:AV5">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="C3:AX5">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>C3&lt;&gt;C$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2557,6 +2822,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="72d00a49-d4df-4ae2-8448-0e7c38748169">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="cdbd341c-9425-4527-8200-dbc5093c0c26" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010001B4E99C690CD84D8C14FB9B89CF5CA2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7d6ebaee038f40569f500d908425f89c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72d00a49-d4df-4ae2-8448-0e7c38748169" xmlns:ns3="cdbd341c-9425-4527-8200-dbc5093c0c26" xmlns:ns4="cc3aaed6-9815-470c-8f7f-f66d9ca72b53" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d22da384523c48d606acb8860bdc860" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="72d00a49-d4df-4ae2-8448-0e7c38748169"/>
@@ -2790,7 +3066,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2799,18 +3075,25 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="72d00a49-d4df-4ae2-8448-0e7c38748169">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="cdbd341c-9425-4527-8200-dbc5093c0c26" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3A8468-9818-4804-84E1-135F70628E6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="cc3aaed6-9815-470c-8f7f-f66d9ca72b53"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cdbd341c-9425-4527-8200-dbc5093c0c26"/>
+    <ds:schemaRef ds:uri="72d00a49-d4df-4ae2-8448-0e7c38748169"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB2DAFF9-D831-4A8A-A26B-34A3990B404D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2830,21 +3113,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB52D826-44CA-4104-AA1D-CE7759CCAD0E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3A8468-9818-4804-84E1-135F70628E6B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="72d00a49-d4df-4ae2-8448-0e7c38748169"/>
-    <ds:schemaRef ds:uri="cdbd341c-9425-4527-8200-dbc5093c0c26"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/systems2atoms/systems/inputs/input_params_baseline.xlsx
+++ b/systems2atoms/systems/inputs/input_params_baseline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doellnl-my.sharepoint.com/personal/yuan13_llnl_gov/Documents/Documents/_work/projects/System to Atoms (S2A)/GitHub/systems2atoms/systems2atoms/systems/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="706" documentId="13_ncr:40009_{386061FE-3CDD-48D5-AA75-D7117555D095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDA50D74-30F0-4FAB-9A30-D15EFF0A634E}"/>
+  <xr:revisionPtr revIDLastSave="708" documentId="13_ncr:40009_{386061FE-3CDD-48D5-AA75-D7117555D095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{107B2A4B-3570-42E5-9113-5F427F326B2A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{30D85B9E-15E4-4604-8CAA-32B765517170}">
+    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{30D85B9E-15E4-4604-8CAA-32B765517170}">
       <text>
         <r>
           <rPr>
@@ -856,7 +856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="0" shapeId="0" xr:uid="{CA9200E2-D037-4AA9-A995-8A3543F0E07D}">
+    <comment ref="AI2" authorId="0" shapeId="0" xr:uid="{CA9200E2-D037-4AA9-A995-8A3543F0E07D}">
       <text>
         <r>
           <rPr>
@@ -990,9 +990,6 @@
     <t>hydr. separator energy (unit TBD)</t>
   </si>
   <si>
-    <t>CO2 electrolyzer purchase cost ($/m^2)</t>
-  </si>
-  <si>
     <t>terminal LOHC storage amount (days)</t>
   </si>
   <si>
@@ -1057,6 +1054,9 @@
   </si>
   <si>
     <t>terminal liquid hydrogen storage amount (days)</t>
+  </si>
+  <si>
+    <t>hydr. electrolyzer purchase cost ($/m^2)</t>
   </si>
 </sst>
 </file>
@@ -1975,10 +1975,10 @@
   <dimension ref="A1:AX5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AH3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2017,8 +2017,8 @@
     <col min="32" max="32" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="31" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="50" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="44.28515625" bestFit="1" customWidth="1"/>
@@ -2094,7 +2094,7 @@
         <v>18</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>19</v>
@@ -2139,57 +2139,57 @@
         <v>32</v>
       </c>
       <c r="AI1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="1">
         <v>46.024999999999999</v>
@@ -2250,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V2" s="1">
         <v>366.15</v>
@@ -2280,11 +2280,11 @@
         <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <f t="shared" ref="AE2:AE5" si="1">D2*F2/2.016/S2*Q2/AP2/24/3600</f>
+        <f>D2*F2/2.016/S2*Q2/AP2/24/3600</f>
         <v>2.6426092969379242</v>
       </c>
       <c r="AF2" s="1">
-        <f t="shared" ref="AF2:AF5" si="2">2*96485/AH2*AE2/Q2*1000</f>
+        <f t="shared" ref="AF2:AF5" si="1">2*96485/AH2*AE2/Q2*1000</f>
         <v>5539.8622056503118</v>
       </c>
       <c r="AG2" s="1">
@@ -2294,10 +2294,10 @@
         <v>2000</v>
       </c>
       <c r="AI2" s="1">
-        <v>0</v>
+        <v>5250</v>
       </c>
       <c r="AJ2" s="1">
-        <v>5250</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="1">
         <v>0.25</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B4" si="3">B2+1</f>
+        <f t="shared" ref="B3:B4" si="2">B2+1</f>
         <v>1</v>
       </c>
       <c r="C3">
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q3">
         <v>46.024999999999999</v>
@@ -2406,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V3">
         <v>366.15</v>
@@ -2436,11 +2436,11 @@
         <v>0</v>
       </c>
       <c r="AE3">
+        <f>D3*F3/2.016/S3*Q3/AP3/24/3600</f>
+        <v>2.6426092969379242</v>
+      </c>
+      <c r="AF3">
         <f t="shared" si="1"/>
-        <v>2.6426092969379242</v>
-      </c>
-      <c r="AF3">
-        <f t="shared" si="2"/>
         <v>5539.8622056503118</v>
       </c>
       <c r="AG3">
@@ -2450,10 +2450,10 @@
         <v>2000</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>5250</v>
       </c>
       <c r="AJ3">
-        <v>5250</v>
+        <v>0</v>
       </c>
       <c r="AK3">
         <v>0.25</v>
@@ -2500,10 +2500,10 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C4">
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q4">
         <v>46.024999999999999</v>
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V4">
         <v>366.15</v>
@@ -2592,11 +2592,11 @@
         <v>0</v>
       </c>
       <c r="AE4">
+        <f>D4*F4/2.016/S4*Q4/AP4/24/3600</f>
+        <v>2.6426092969379242</v>
+      </c>
+      <c r="AF4">
         <f t="shared" si="1"/>
-        <v>2.6426092969379242</v>
-      </c>
-      <c r="AF4">
-        <f t="shared" si="2"/>
         <v>5539.8622056503118</v>
       </c>
       <c r="AG4">
@@ -2606,10 +2606,10 @@
         <v>2000</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>5250</v>
       </c>
       <c r="AJ4">
-        <v>5250</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>0.25</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <f>B4+1</f>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q5">
         <v>46.024999999999999</v>
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="U5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V5">
         <v>366.15</v>
@@ -2748,11 +2748,11 @@
         <v>0</v>
       </c>
       <c r="AE5">
+        <f>D5*F5/2.016/S5*Q5/AP5/24/3600</f>
+        <v>2.6426092969379242</v>
+      </c>
+      <c r="AF5">
         <f t="shared" si="1"/>
-        <v>2.6426092969379242</v>
-      </c>
-      <c r="AF5">
-        <f t="shared" si="2"/>
         <v>5539.8622056503118</v>
       </c>
       <c r="AG5">
@@ -2762,10 +2762,10 @@
         <v>2000</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>5250</v>
       </c>
       <c r="AJ5">
-        <v>5250</v>
+        <v>0</v>
       </c>
       <c r="AK5">
         <v>0.25</v>
@@ -2833,6 +2833,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010001B4E99C690CD84D8C14FB9B89CF5CA2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7d6ebaee038f40569f500d908425f89c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72d00a49-d4df-4ae2-8448-0e7c38748169" xmlns:ns3="cdbd341c-9425-4527-8200-dbc5093c0c26" xmlns:ns4="cc3aaed6-9815-470c-8f7f-f66d9ca72b53" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d22da384523c48d606acb8860bdc860" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="72d00a49-d4df-4ae2-8448-0e7c38748169"/>
@@ -3066,15 +3075,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3A8468-9818-4804-84E1-135F70628E6B}">
   <ds:schemaRefs>
@@ -3094,6 +3094,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB52D826-44CA-4104-AA1D-CE7759CCAD0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB2DAFF9-D831-4A8A-A26B-34A3990B404D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3111,12 +3119,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB52D826-44CA-4104-AA1D-CE7759CCAD0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/systems2atoms/systems/inputs/input_params_baseline.xlsx
+++ b/systems2atoms/systems/inputs/input_params_baseline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doellnl-my.sharepoint.com/personal/yuan13_llnl_gov/Documents/Documents/_work/projects/System to Atoms (S2A)/GitHub/systems2atoms/systems2atoms/systems/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="708" documentId="13_ncr:40009_{386061FE-3CDD-48D5-AA75-D7117555D095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{107B2A4B-3570-42E5-9113-5F427F326B2A}"/>
+  <xr:revisionPtr revIDLastSave="723" documentId="13_ncr:40009_{386061FE-3CDD-48D5-AA75-D7117555D095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D586893-9054-41AC-9051-F9F59DA1D1A4}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -488,8 +488,9 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Placeholder.
-Used for "thermo" formic acid production calculations, which are currently incomplete.</t>
+Use for "thermo" and "electro" LOHC production calculations. 
+Catalyst for "electro" LOHC production represents catalyst-coated membrane in electrolyzer.
+Note: "thermo" hydrogenation calculations are currently incomplete, in which case this input is a placeholder.</t>
         </r>
       </text>
     </comment>
@@ -517,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{30D85B9E-15E4-4604-8CAA-32B765517170}">
+    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{B0EC3E37-ACB0-48CC-97D4-8D415FB5805A}">
       <text>
         <r>
           <rPr>
@@ -525,7 +526,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Yuan, Mengyao:</t>
         </r>
@@ -534,14 +535,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Currently not used.</t>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction of electrolyzer purchase cost that is attributed to catalyst components. Default value based catalyst-coated membrane cost fractions in Figure 14 in NREL, 2019, "Manufacturing Cost Analysis for Proton Exchange Membrane Water Electrolyzers", NREL/TP-6A20-72740.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{3CEB65E5-8338-4451-AB5C-EBCA3C4962CC}">
+    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{30D85B9E-15E4-4604-8CAA-32B765517170}">
       <text>
         <r>
           <rPr>
@@ -565,7 +566,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{405935AC-9727-4D69-942C-356191EE2051}">
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{3CEB65E5-8338-4451-AB5C-EBCA3C4962CC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yuan, Mengyao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Currently not used.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{405935AC-9727-4D69-942C-356191EE2051}">
       <text>
         <r>
           <rPr>
@@ -886,7 +911,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>scenario</t>
   </si>
@@ -1057,6 +1082,9 @@
   </si>
   <si>
     <t>hydr. electrolyzer purchase cost ($/m^2)</t>
+  </si>
+  <si>
+    <t>hydr. electrolyzer catalyst cost fraction</t>
   </si>
 </sst>
 </file>
@@ -1972,13 +2000,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX5"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AH3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI1" sqref="AI1"/>
+      <selection pane="bottomRight" activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,24 +2046,25 @@
     <col min="33" max="33" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="31" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="50" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="31" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="29" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="43" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="31" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="50" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="31" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="29" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="43" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2142,52 +2171,55 @@
         <v>56</v>
       </c>
       <c r="AJ1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -2280,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <f>D2*F2/2.016/S2*Q2/AP2/24/3600</f>
+        <f>D2*F2/2.016/S2*Q2/AQ2/24/3600</f>
         <v>2.6426092969379242</v>
       </c>
       <c r="AF2" s="1">
@@ -2297,52 +2329,55 @@
         <v>5250</v>
       </c>
       <c r="AJ2" s="1">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AK2" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="1">
         <v>0.25</v>
       </c>
       <c r="AM2" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AN2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="1">
         <v>300</v>
       </c>
-      <c r="AO2" s="1">
-        <v>1</v>
-      </c>
       <c r="AP2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="1">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AR2" s="1">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AR2" s="1">
-        <v>1</v>
-      </c>
       <c r="AS2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="1">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AU2" s="1">
         <v>3500</v>
       </c>
-      <c r="AU2" s="1">
-        <v>1</v>
-      </c>
       <c r="AV2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW2" s="1">
         <v>0</v>
       </c>
       <c r="AX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -2436,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <f>D3*F3/2.016/S3*Q3/AP3/24/3600</f>
+        <f>D3*F3/2.016/S3*Q3/AQ3/24/3600</f>
         <v>2.6426092969379242</v>
       </c>
       <c r="AF3">
@@ -2453,52 +2488,55 @@
         <v>5250</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AK3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>0.25</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>300</v>
       </c>
-      <c r="AO3">
-        <v>1</v>
-      </c>
       <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AR3">
-        <v>1</v>
-      </c>
       <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AT3">
+      <c r="AU3">
         <v>3500</v>
       </c>
-      <c r="AU3">
-        <v>1</v>
-      </c>
       <c r="AV3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW3">
         <v>0</v>
       </c>
       <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -2592,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <f>D4*F4/2.016/S4*Q4/AP4/24/3600</f>
+        <f>D4*F4/2.016/S4*Q4/AQ4/24/3600</f>
         <v>2.6426092969379242</v>
       </c>
       <c r="AF4">
@@ -2609,52 +2647,55 @@
         <v>5250</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AK4">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>0.25</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>300</v>
       </c>
-      <c r="AO4">
-        <v>1</v>
-      </c>
       <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AR4">
-        <v>1</v>
-      </c>
       <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AT4">
+      <c r="AU4">
         <v>3500</v>
       </c>
-      <c r="AU4">
-        <v>1</v>
-      </c>
       <c r="AV4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW4">
         <v>0</v>
       </c>
       <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2748,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <f>D5*F5/2.016/S5*Q5/AP5/24/3600</f>
+        <f>D5*F5/2.016/S5*Q5/AQ5/24/3600</f>
         <v>2.6426092969379242</v>
       </c>
       <c r="AF5">
@@ -2765,53 +2806,56 @@
         <v>5250</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AK5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>0.25</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>300</v>
       </c>
-      <c r="AO5">
-        <v>1</v>
-      </c>
       <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AR5">
-        <v>1</v>
-      </c>
       <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AT5">
+      <c r="AU5">
         <v>3500</v>
       </c>
-      <c r="AU5">
-        <v>1</v>
-      </c>
       <c r="AV5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW5">
         <v>0</v>
       </c>
       <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:AX5">
+  <conditionalFormatting sqref="C3:AY5">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>C3&lt;&gt;C$2</formula>
     </cfRule>

--- a/systems2atoms/systems/inputs/input_params_baseline.xlsx
+++ b/systems2atoms/systems/inputs/input_params_baseline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doellnl-my.sharepoint.com/personal/yuan13_llnl_gov/Documents/Documents/_work/projects/System to Atoms (S2A)/GitHub/systems2atoms/systems2atoms/systems/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="723" documentId="13_ncr:40009_{386061FE-3CDD-48D5-AA75-D7117555D095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D586893-9054-41AC-9051-F9F59DA1D1A4}"/>
+  <xr:revisionPtr revIDLastSave="761" documentId="13_ncr:40009_{386061FE-3CDD-48D5-AA75-D7117555D095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33A97F9E-5BAB-4B82-B5DA-0726D646C410}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,9 +488,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Use for "thermo" and "electro" LOHC production calculations. 
-Catalyst for "electro" LOHC production represents catalyst-coated membrane in electrolyzer.
-Note: "thermo" hydrogenation calculations are currently incomplete, in which case this input is a placeholder.</t>
+Use for "thermo" LOHC production calculations.
+Note: this input is a placeholder, as "thermo" hydrogenation calculations are currently incomplete.</t>
         </r>
       </text>
     </comment>
@@ -542,7 +541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{30D85B9E-15E4-4604-8CAA-32B765517170}">
+    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{30D85B9E-15E4-4604-8CAA-32B765517170}">
       <text>
         <r>
           <rPr>
@@ -566,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{3CEB65E5-8338-4451-AB5C-EBCA3C4962CC}">
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{3CEB65E5-8338-4451-AB5C-EBCA3C4962CC}">
       <text>
         <r>
           <rPr>
@@ -590,7 +589,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{405935AC-9727-4D69-942C-356191EE2051}">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{405935AC-9727-4D69-942C-356191EE2051}">
       <text>
         <r>
           <rPr>
@@ -903,6 +902,30 @@
           <t xml:space="preserve">
 Use current alkaline hydrogen electrolyzer cost as a target for CO2 electrolyzer.
 Ramdin et al., 2019, Ind. Eng. Chem. Res. https://pubs.acs.org/doi/10.1021/acs.iecr.8b04944</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK2" authorId="0" shapeId="0" xr:uid="{5A536E3D-2ADE-4742-95A8-2E707C077D8E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Yuan, Mengyao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10 years = target / optimistic assumption based on hyrogen PEM electrolyzers: https://www.cell.com/joule/fulltext/S2542-4351(24)00425-2.</t>
         </r>
       </text>
     </comment>
@@ -911,7 +934,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>scenario</t>
   </si>
@@ -1085,6 +1108,9 @@
   </si>
   <si>
     <t>hydr. electrolyzer catalyst cost fraction</t>
+  </si>
+  <si>
+    <t>hydr. electrolyzer lifetime (yr)</t>
   </si>
 </sst>
 </file>
@@ -2000,13 +2026,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY5"/>
+  <dimension ref="A1:AZ5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AH3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ1" sqref="AJ1"/>
+      <selection pane="bottomRight" activeCell="AK1" sqref="AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2045,26 +2071,27 @@
     <col min="32" max="32" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="31" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="50" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="31" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="29" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="43" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="31" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="50" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="31" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="29" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="43" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2174,52 +2201,55 @@
         <v>57</v>
       </c>
       <c r="AK1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -2312,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <f>D2*F2/2.016/S2*Q2/AQ2/24/3600</f>
+        <f>D2*F2/2.016/S2*Q2/AR2/24/3600</f>
         <v>2.6426092969379242</v>
       </c>
       <c r="AF2" s="1">
@@ -2332,52 +2362,55 @@
         <v>0.45</v>
       </c>
       <c r="AK2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL2" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="1">
         <v>0.25</v>
       </c>
       <c r="AN2" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AO2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="1">
         <v>300</v>
       </c>
-      <c r="AP2" s="1">
-        <v>1</v>
-      </c>
       <c r="AQ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="1">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AS2" s="1">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AS2" s="1">
-        <v>1</v>
-      </c>
       <c r="AT2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="1">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AV2" s="1">
         <v>3500</v>
       </c>
-      <c r="AV2" s="1">
-        <v>1</v>
-      </c>
       <c r="AW2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX2" s="1">
         <v>0</v>
       </c>
       <c r="AY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -2471,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <f>D3*F3/2.016/S3*Q3/AQ3/24/3600</f>
+        <f>D3*F3/2.016/S3*Q3/AR3/24/3600</f>
         <v>2.6426092969379242</v>
       </c>
       <c r="AF3">
@@ -2491,52 +2524,55 @@
         <v>0.45</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AM3">
         <v>0.25</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
         <v>300</v>
       </c>
-      <c r="AP3">
-        <v>1</v>
-      </c>
       <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AS3">
-        <v>1</v>
-      </c>
       <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AU3">
+      <c r="AV3">
         <v>3500</v>
       </c>
-      <c r="AV3">
-        <v>1</v>
-      </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3">
         <v>0</v>
       </c>
       <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -2630,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <f>D4*F4/2.016/S4*Q4/AQ4/24/3600</f>
+        <f>D4*F4/2.016/S4*Q4/AR4/24/3600</f>
         <v>2.6426092969379242</v>
       </c>
       <c r="AF4">
@@ -2650,52 +2686,55 @@
         <v>0.45</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL4">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>0.25</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
         <v>300</v>
       </c>
-      <c r="AP4">
-        <v>1</v>
-      </c>
       <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AS4">
-        <v>1</v>
-      </c>
       <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <v>3500</v>
       </c>
-      <c r="AV4">
-        <v>1</v>
-      </c>
       <c r="AW4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX4">
         <v>0</v>
       </c>
       <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2789,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <f>D5*F5/2.016/S5*Q5/AQ5/24/3600</f>
+        <f>D5*F5/2.016/S5*Q5/AR5/24/3600</f>
         <v>2.6426092969379242</v>
       </c>
       <c r="AF5">
@@ -2809,53 +2848,56 @@
         <v>0.45</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>0.25</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
         <v>300</v>
       </c>
-      <c r="AP5">
-        <v>1</v>
-      </c>
       <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AS5">
-        <v>1</v>
-      </c>
       <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AU5">
+      <c r="AV5">
         <v>3500</v>
       </c>
-      <c r="AV5">
-        <v>1</v>
-      </c>
       <c r="AW5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX5">
         <v>0</v>
       </c>
       <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:AY5">
+  <conditionalFormatting sqref="C3:AZ5">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>C3&lt;&gt;C$2</formula>
     </cfRule>
@@ -2877,15 +2919,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010001B4E99C690CD84D8C14FB9B89CF5CA2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7d6ebaee038f40569f500d908425f89c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72d00a49-d4df-4ae2-8448-0e7c38748169" xmlns:ns3="cdbd341c-9425-4527-8200-dbc5093c0c26" xmlns:ns4="cc3aaed6-9815-470c-8f7f-f66d9ca72b53" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d22da384523c48d606acb8860bdc860" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="72d00a49-d4df-4ae2-8448-0e7c38748169"/>
@@ -3119,6 +3152,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3A8468-9818-4804-84E1-135F70628E6B}">
   <ds:schemaRefs>
@@ -3138,14 +3180,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB52D826-44CA-4104-AA1D-CE7759CCAD0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB2DAFF9-D831-4A8A-A26B-34A3990B404D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3163,4 +3197,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB52D826-44CA-4104-AA1D-CE7759CCAD0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/systems2atoms/systems/inputs/input_params_baseline.xlsx
+++ b/systems2atoms/systems/inputs/input_params_baseline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doellnl-my.sharepoint.com/personal/yuan13_llnl_gov/Documents/Documents/_work/projects/System to Atoms (S2A)/GitHub/systems2atoms/systems2atoms/systems/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="761" documentId="13_ncr:40009_{386061FE-3CDD-48D5-AA75-D7117555D095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33A97F9E-5BAB-4B82-B5DA-0726D646C410}"/>
+  <xr:revisionPtr revIDLastSave="774" documentId="13_ncr:40009_{386061FE-3CDD-48D5-AA75-D7117555D095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3F3C2BE-1301-420F-A887-1AAE14C2F64B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,8 +488,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Use for "thermo" LOHC production calculations.
-Note: this input is a placeholder, as "thermo" hydrogenation calculations are currently incomplete.</t>
+Placeholder.
+Used for "thermo" formic acid production calculations, which are currently incomplete.</t>
         </r>
       </text>
     </comment>
@@ -762,6 +762,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{977AFDCE-8C6E-4FC6-93F5-E1080A07C4F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Yuan, Mengyao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+6 years based on assumption for MCH/toluene hydrogenation and dehydrogenation catalysts: https://www.nature.com/articles/s41467-024-53189-2.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{8205285B-115C-47F0-8185-1199E3B70079}">
       <text>
         <r>
@@ -926,6 +950,30 @@
           </rPr>
           <t xml:space="preserve">
 10 years = target / optimistic assumption based on hyrogen PEM electrolyzers: https://www.cell.com/joule/fulltext/S2542-4351(24)00425-2.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW2" authorId="0" shapeId="0" xr:uid="{5ACBA5E6-D4BD-4257-B0A5-2524EE41A3DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Yuan, Mengyao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+6 years based on assumption for MCH/toluene hydrogenation and dehydrogenation catalysts: https://www.nature.com/articles/s41467-024-53189-2.</t>
         </r>
       </text>
     </comment>
@@ -2029,10 +2077,10 @@
   <dimension ref="A1:AZ5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AH3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK1" sqref="AK1"/>
+      <selection pane="bottomRight" activeCell="AW2" sqref="AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2336,7 +2384,7 @@
         <v>5450</v>
       </c>
       <c r="AC2" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD2" s="1">
         <v>0</v>
@@ -2398,7 +2446,7 @@
         <v>3500</v>
       </c>
       <c r="AW2" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX2" s="1">
         <v>0</v>
@@ -2498,7 +2546,7 @@
         <v>5450</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -2560,7 +2608,7 @@
         <v>3500</v>
       </c>
       <c r="AW3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -2660,7 +2708,7 @@
         <v>5450</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -2722,7 +2770,7 @@
         <v>3500</v>
       </c>
       <c r="AW4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX4">
         <v>0</v>
@@ -2822,7 +2870,7 @@
         <v>5450</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -2884,7 +2932,7 @@
         <v>3500</v>
       </c>
       <c r="AW5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX5">
         <v>0</v>
@@ -2908,14 +2956,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="72d00a49-d4df-4ae2-8448-0e7c38748169">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="cdbd341c-9425-4527-8200-dbc5093c0c26" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3153,28 +3199,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="72d00a49-d4df-4ae2-8448-0e7c38748169">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="cdbd341c-9425-4527-8200-dbc5093c0c26" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3A8468-9818-4804-84E1-135F70628E6B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB52D826-44CA-4104-AA1D-CE7759CCAD0E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="cc3aaed6-9815-470c-8f7f-f66d9ca72b53"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cdbd341c-9425-4527-8200-dbc5093c0c26"/>
-    <ds:schemaRef ds:uri="72d00a49-d4df-4ae2-8448-0e7c38748169"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3200,9 +3238,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB52D826-44CA-4104-AA1D-CE7759CCAD0E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3A8468-9818-4804-84E1-135F70628E6B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="cc3aaed6-9815-470c-8f7f-f66d9ca72b53"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cdbd341c-9425-4527-8200-dbc5093c0c26"/>
+    <ds:schemaRef ds:uri="72d00a49-d4df-4ae2-8448-0e7c38748169"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/systems2atoms/systems/inputs/input_params_baseline.xlsx
+++ b/systems2atoms/systems/inputs/input_params_baseline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doellnl-my.sharepoint.com/personal/yuan13_llnl_gov/Documents/Documents/_work/projects/System to Atoms (S2A)/GitHub/systems2atoms/systems2atoms/systems/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="774" documentId="13_ncr:40009_{386061FE-3CDD-48D5-AA75-D7117555D095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3F3C2BE-1301-420F-A887-1AAE14C2F64B}"/>
+  <xr:revisionPtr revIDLastSave="808" documentId="13_ncr:40009_{386061FE-3CDD-48D5-AA75-D7117555D095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DE93F77-7E03-4E4E-B22B-D20AC37DB302}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{3CEB65E5-8338-4451-AB5C-EBCA3C4962CC}">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{3CEB65E5-8338-4451-AB5C-EBCA3C4962CC}">
       <text>
         <r>
           <rPr>
@@ -585,11 +585,12 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Currently not used.</t>
+Unit: kWh/kg H2. 
+If dehydr. reaction pathway is "literature", use this input to account for any energy (electricity) requirements for the dehydrogenation reaction, including upstream unit operations.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{405935AC-9727-4D69-942C-356191EE2051}">
+    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{405935AC-9727-4D69-942C-356191EE2051}">
       <text>
         <r>
           <rPr>
@@ -953,7 +954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="0" shapeId="0" xr:uid="{5ACBA5E6-D4BD-4257-B0A5-2524EE41A3DD}">
+    <comment ref="AX2" authorId="0" shapeId="0" xr:uid="{5ACBA5E6-D4BD-4257-B0A5-2524EE41A3DD}">
       <text>
         <r>
           <rPr>
@@ -982,7 +983,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>scenario</t>
   </si>
@@ -1041,9 +1042,6 @@
     <t>stoic. ratio (mol H2/mol LOHC)</t>
   </si>
   <si>
-    <t>LOHC production pathway</t>
-  </si>
-  <si>
     <t>hydr. reaction temperature (K)</t>
   </si>
   <si>
@@ -1113,9 +1111,6 @@
     <t>dehydr. catalyst lifetime (yr)</t>
   </si>
   <si>
-    <t>dehydr. reactor energy (unit TBD)</t>
-  </si>
-  <si>
     <t>dehydr. gas/liquid separator energy (unit TBD)</t>
   </si>
   <si>
@@ -1159,6 +1154,18 @@
   </si>
   <si>
     <t>hydr. electrolyzer lifetime (yr)</t>
+  </si>
+  <si>
+    <t>hydr. reaction pathway</t>
+  </si>
+  <si>
+    <t>dehydr. reaction pathway</t>
+  </si>
+  <si>
+    <t>thermo, model</t>
+  </si>
+  <si>
+    <t>dehydr. plant energy (kWh/kg)</t>
   </si>
 </sst>
 </file>
@@ -1753,7 +1760,17 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -2074,13 +2091,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ5"/>
+  <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AT3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AW2" sqref="AW2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2126,20 +2143,21 @@
     <col min="39" max="39" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="50" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="31" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="29" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="43" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="24" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="31" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="29" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="43" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2198,108 +2216,111 @@
         <v>18</v>
       </c>
       <c r="T1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AL1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -2345,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="1">
         <v>46.024999999999999</v>
@@ -2360,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V2" s="1">
         <v>366.15</v>
@@ -2390,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <f>D2*F2/2.016/S2*Q2/AR2/24/3600</f>
+        <f>D2*F2/2.016/S2*Q2/AS2/24/3600</f>
         <v>2.6426092969379242</v>
       </c>
       <c r="AF2" s="1">
@@ -2424,43 +2445,46 @@
       <c r="AO2" s="1">
         <v>1</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AP2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ2" s="1">
         <v>300</v>
       </c>
-      <c r="AQ2" s="1">
-        <v>1</v>
-      </c>
       <c r="AR2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="1">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AS2" s="1">
+      <c r="AT2" s="1">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AT2" s="1">
-        <v>1</v>
-      </c>
       <c r="AU2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="1">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AV2" s="1">
+      <c r="AW2" s="1">
         <v>3500</v>
       </c>
-      <c r="AW2" s="1">
+      <c r="AX2" s="1">
         <v>6</v>
       </c>
-      <c r="AX2" s="1">
-        <v>0</v>
-      </c>
       <c r="AY2" s="1">
         <v>0</v>
       </c>
       <c r="AZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B4" si="2">B2+1</f>
@@ -2507,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q3">
         <v>46.024999999999999</v>
@@ -2522,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V3">
         <v>366.15</v>
@@ -2552,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <f>D3*F3/2.016/S3*Q3/AR3/24/3600</f>
+        <f>D3*F3/2.016/S3*Q3/AS3/24/3600</f>
         <v>2.6426092969379242</v>
       </c>
       <c r="AF3">
@@ -2586,43 +2610,46 @@
       <c r="AO3">
         <v>1</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ3">
         <v>300</v>
       </c>
-      <c r="AQ3">
-        <v>1</v>
-      </c>
       <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AT3">
-        <v>1</v>
-      </c>
       <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AV3">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <v>3500</v>
       </c>
-      <c r="AW3">
+      <c r="AX3">
         <v>6</v>
       </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
       <c r="AY3">
         <v>0</v>
       </c>
       <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <f t="shared" si="2"/>
@@ -2669,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q4">
         <v>46.024999999999999</v>
@@ -2684,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V4">
         <v>366.15</v>
@@ -2714,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <f>D4*F4/2.016/S4*Q4/AR4/24/3600</f>
+        <f>D4*F4/2.016/S4*Q4/AS4/24/3600</f>
         <v>2.6426092969379242</v>
       </c>
       <c r="AF4">
@@ -2748,43 +2775,46 @@
       <c r="AO4">
         <v>1</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ4">
         <v>300</v>
       </c>
-      <c r="AQ4">
-        <v>1</v>
-      </c>
       <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AT4">
-        <v>1</v>
-      </c>
       <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <v>3500</v>
       </c>
-      <c r="AW4">
+      <c r="AX4">
         <v>6</v>
       </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
       <c r="AY4">
         <v>0</v>
       </c>
       <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <f>B4+1</f>
@@ -2831,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q5">
         <v>46.024999999999999</v>
@@ -2846,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="U5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V5">
         <v>366.15</v>
@@ -2876,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <f>D5*F5/2.016/S5*Q5/AR5/24/3600</f>
+        <f>D5*F5/2.016/S5*Q5/AS5/24/3600</f>
         <v>2.6426092969379242</v>
       </c>
       <c r="AF5">
@@ -2910,42 +2940,45 @@
       <c r="AO5">
         <v>1</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ5">
         <v>300</v>
       </c>
-      <c r="AQ5">
-        <v>1</v>
-      </c>
       <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AT5">
-        <v>1</v>
-      </c>
       <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AV5">
+      <c r="AW5">
         <v>3500</v>
       </c>
-      <c r="AW5">
+      <c r="AX5">
         <v>6</v>
       </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
       <c r="AY5">
         <v>0</v>
       </c>
       <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:AZ5">
+  <conditionalFormatting sqref="C3:BA5">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>C3&lt;&gt;C$2</formula>
     </cfRule>
@@ -2956,15 +2989,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010001B4E99C690CD84D8C14FB9B89CF5CA2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7d6ebaee038f40569f500d908425f89c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72d00a49-d4df-4ae2-8448-0e7c38748169" xmlns:ns3="cdbd341c-9425-4527-8200-dbc5093c0c26" xmlns:ns4="cc3aaed6-9815-470c-8f7f-f66d9ca72b53" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d22da384523c48d606acb8860bdc860" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="72d00a49-d4df-4ae2-8448-0e7c38748169"/>
@@ -3198,6 +3222,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3210,14 +3243,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB52D826-44CA-4104-AA1D-CE7759CCAD0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB2DAFF9-D831-4A8A-A26B-34A3990B404D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3233,6 +3258,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB52D826-44CA-4104-AA1D-CE7759CCAD0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
